--- a/data/trans_dic/POLIPATOLOGIA_2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_2-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.161505409220517</v>
+        <v>0.1625053167724882</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2264966151981938</v>
+        <v>0.2243979071882059</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1998801169407231</v>
+        <v>0.2006322833360804</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3301567483132297</v>
+        <v>0.3303655243379492</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2621687252629242</v>
+        <v>0.2658932054547756</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3923472158910141</v>
+        <v>0.3964937253375631</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3438290322043903</v>
+        <v>0.3485735499372613</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4476899240679689</v>
+        <v>0.4441491173258617</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2218124255859084</v>
+        <v>0.2208936050438414</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3209328486633965</v>
+        <v>0.3235638481236922</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2800656462745119</v>
+        <v>0.2808349093267981</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3972948441368856</v>
+        <v>0.397984254425357</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.215214827749751</v>
+        <v>0.2185677441890332</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2914922811422681</v>
+        <v>0.2959451564520731</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2669802559131827</v>
+        <v>0.2641814398486267</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4081540840801657</v>
+        <v>0.405455589479553</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3357847918179641</v>
+        <v>0.333025283608997</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4717748400930761</v>
+        <v>0.4750665759732282</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4192090350852445</v>
+        <v>0.4262017766033722</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5065314322648623</v>
+        <v>0.5055211044349781</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2685328259805099</v>
+        <v>0.266185071969447</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3739626935411711</v>
+        <v>0.3759088308179331</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3302989891566474</v>
+        <v>0.3327929118576656</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4455992725525385</v>
+        <v>0.4485261170773489</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1733533429501468</v>
+        <v>0.175406526437119</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.212370761747999</v>
+        <v>0.2131435490826529</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2075800381818589</v>
+        <v>0.2058582911748366</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2551437135548992</v>
+        <v>0.2569872396509275</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3106023103411955</v>
+        <v>0.3077179788968922</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3497987255616961</v>
+        <v>0.3488234116294797</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3413311930576489</v>
+        <v>0.3465582696166394</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4220141613200749</v>
+        <v>0.4219018449182793</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2512836195664576</v>
+        <v>0.2509900251037458</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2909565628140321</v>
+        <v>0.2889221158188035</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2836750982618118</v>
+        <v>0.2844105607863012</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.346507071055961</v>
+        <v>0.3478356154956242</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2261805375228023</v>
+        <v>0.2286902565079887</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2665776119802223</v>
+        <v>0.2678474423089157</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2594586803465691</v>
+        <v>0.2581847959285691</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3126079482570873</v>
+        <v>0.3159986592532672</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.372543335327872</v>
+        <v>0.3700160023169798</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4108819592673064</v>
+        <v>0.4118856886411636</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4046354294465217</v>
+        <v>0.4061125391401181</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4756754941598422</v>
+        <v>0.4771450423592629</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2927616424502683</v>
+        <v>0.2924569354333212</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3315097180988671</v>
+        <v>0.3315319094181595</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3247036705644433</v>
+        <v>0.3250519007658536</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3877487793016062</v>
+        <v>0.3892078368761476</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.3114592911916019</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.4581366295530214</v>
+        <v>0.4581366295530213</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.285461389660525</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1703213291719133</v>
+        <v>0.1698306959277124</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1847526460218173</v>
+        <v>0.1850954465284024</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.191473087237466</v>
+        <v>0.1890202464879358</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2853782885299305</v>
+        <v>0.2851303423048379</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3376960358823158</v>
+        <v>0.3357147585164075</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3098556031394749</v>
+        <v>0.310352214986342</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2804767295144972</v>
+        <v>0.2754855271228319</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4274319428809092</v>
+        <v>0.4247543254265337</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2623449553002145</v>
+        <v>0.2601734723099761</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2576728212363572</v>
+        <v>0.2589371828861034</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2452045518473159</v>
+        <v>0.243831007293897</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3691387721998808</v>
+        <v>0.3671873668306755</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.231284204969104</v>
+        <v>0.2302382195856323</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2536085940012904</v>
+        <v>0.2476589753156238</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2549712979812742</v>
+        <v>0.2503817943900274</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3617494745969393</v>
+        <v>0.3590623956301871</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4117116632913841</v>
+        <v>0.4084545242197816</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3826916223655085</v>
+        <v>0.3805364182360361</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3503303113160076</v>
+        <v>0.3437288413764937</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4920795676668943</v>
+        <v>0.491571508073663</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3100310427702877</v>
+        <v>0.3092600526264097</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3060621631740556</v>
+        <v>0.3059948683699264</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2899557960979653</v>
+        <v>0.2896221290560568</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.415375199464364</v>
+        <v>0.414649059625826</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.2654327693462923</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3337176419210335</v>
+        <v>0.3337176419210336</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.3307209333197652</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1777011853668738</v>
+        <v>0.1795027675030823</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2277417195508199</v>
+        <v>0.2310123637663505</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2369781541837773</v>
+        <v>0.236744167249586</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3024167367274839</v>
+        <v>0.3019985012038998</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3040914673471043</v>
+        <v>0.303543220405126</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3597317001182177</v>
+        <v>0.364162442608286</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3431934697229255</v>
+        <v>0.3430825006821498</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4397094047980962</v>
+        <v>0.4390880223371006</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2517915889646884</v>
+        <v>0.250193832496338</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3085974149848391</v>
+        <v>0.3074521574777406</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3008158428248178</v>
+        <v>0.3010330569705074</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3844391903099454</v>
+        <v>0.3816486879213462</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2253498177667352</v>
+        <v>0.2295529726393798</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2854933966212633</v>
+        <v>0.2878880501042529</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2934018322204828</v>
+        <v>0.2961407471080348</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.364600878710648</v>
+        <v>0.3625063830774955</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3597614071848599</v>
+        <v>0.3597676405404165</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4256337675497346</v>
+        <v>0.4271257157419674</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4041505443546443</v>
+        <v>0.4041341115289977</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4905739195100969</v>
+        <v>0.4914530168213487</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2893603500309995</v>
+        <v>0.2911275119652538</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3502677063373589</v>
+        <v>0.3509398889348522</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3441965736187772</v>
+        <v>0.3442526868822445</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4221417937326244</v>
+        <v>0.4225664951179857</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1836902442071196</v>
+        <v>0.183963270024117</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2285916501713468</v>
+        <v>0.2277489814157754</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.224005101273313</v>
+        <v>0.2251017382393446</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3074551715711908</v>
+        <v>0.3057504173086999</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3187980497467797</v>
+        <v>0.3188083237191427</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3691360209666502</v>
+        <v>0.3705269174170019</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3443184172949922</v>
+        <v>0.3421775869072018</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4467535595557532</v>
+        <v>0.4474530844938493</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2560107588528546</v>
+        <v>0.2575965742536874</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3043682720939518</v>
+        <v>0.3044697620063027</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2884601761554669</v>
+        <v>0.2902112413715754</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3818879201369373</v>
+        <v>0.3817487654082554</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2110368303081016</v>
+        <v>0.211719058118747</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2593592738880337</v>
+        <v>0.2592995930426619</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2540258005607766</v>
+        <v>0.2533845174307455</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3398893028249449</v>
+        <v>0.3387709262693741</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3507406700124574</v>
+        <v>0.3509144351144274</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4030172168320776</v>
+        <v>0.4035991487437324</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3778455722336492</v>
+        <v>0.3768463126128068</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4752806776127179</v>
+        <v>0.4756974563710953</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2784414872857595</v>
+        <v>0.2784729992324192</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3276272681179413</v>
+        <v>0.3272453369934935</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3122488336970831</v>
+        <v>0.31180790888157</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4047081461397947</v>
+        <v>0.4041744898064048</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>112087</v>
+        <v>112781</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>159333</v>
+        <v>157857</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>134879</v>
+        <v>135387</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>228043</v>
+        <v>228187</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>180464</v>
+        <v>183028</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>273486</v>
+        <v>276376</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>231342</v>
+        <v>234534</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>328685</v>
+        <v>326085</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>306625</v>
+        <v>305355</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>449473</v>
+        <v>453157</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>377427</v>
+        <v>378464</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>566101</v>
+        <v>567083</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>149362</v>
+        <v>151689</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>205056</v>
+        <v>208188</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>180158</v>
+        <v>178270</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>281916</v>
+        <v>280052</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>231138</v>
+        <v>229238</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>328851</v>
+        <v>331145</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>282060</v>
+        <v>286765</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>371885</v>
+        <v>371143</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>371210</v>
+        <v>367964</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>523742</v>
+        <v>526467</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>445124</v>
+        <v>448485</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>634930</v>
+        <v>639100</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>166731</v>
+        <v>168706</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>216182</v>
+        <v>216969</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>212236</v>
+        <v>210476</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>267625</v>
+        <v>269558</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>300785</v>
+        <v>297992</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>361057</v>
+        <v>360050</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>355979</v>
+        <v>361430</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>452177</v>
+        <v>452057</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>485026</v>
+        <v>484459</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>596499</v>
+        <v>592328</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>585887</v>
+        <v>587406</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>734730</v>
+        <v>737548</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>217540</v>
+        <v>219954</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>271362</v>
+        <v>272655</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>265279</v>
+        <v>263976</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>327900</v>
+        <v>331456</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>360768</v>
+        <v>358321</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>424106</v>
+        <v>425142</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>422000</v>
+        <v>423540</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>509674</v>
+        <v>511249</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>565086</v>
+        <v>564498</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>679638</v>
+        <v>679684</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>670625</v>
+        <v>671344</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>822179</v>
+        <v>825273</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>115565</v>
+        <v>115232</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>139973</v>
+        <v>140233</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>145434</v>
+        <v>143571</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>229180</v>
+        <v>228980</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>230930</v>
+        <v>229576</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>240812</v>
+        <v>241198</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>220177</v>
+        <v>216259</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>347185</v>
+        <v>345011</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>357406</v>
+        <v>354447</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>395475</v>
+        <v>397416</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>378734</v>
+        <v>376612</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>596282</v>
+        <v>593130</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>156928</v>
+        <v>156219</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>192140</v>
+        <v>187632</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>193664</v>
+        <v>190178</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>290511</v>
+        <v>288353</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>281545</v>
+        <v>279318</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>297418</v>
+        <v>295743</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>275013</v>
+        <v>269831</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>399696</v>
+        <v>399283</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>422371</v>
+        <v>421320</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>469743</v>
+        <v>469640</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>447855</v>
+        <v>447340</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>670969</v>
+        <v>669796</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>167434</v>
+        <v>169131</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>215840</v>
+        <v>218939</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>222183</v>
+        <v>221964</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>299411</v>
+        <v>298997</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>315833</v>
+        <v>315264</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>378402</v>
+        <v>383063</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>358218</v>
+        <v>358102</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>492053</v>
+        <v>491357</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>498757</v>
+        <v>495592</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>617084</v>
+        <v>614794</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>596020</v>
+        <v>596451</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>810822</v>
+        <v>804937</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>212330</v>
+        <v>216290</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>270573</v>
+        <v>272843</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>275084</v>
+        <v>277652</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>360977</v>
+        <v>358904</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>373653</v>
+        <v>373659</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>447725</v>
+        <v>449294</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>421844</v>
+        <v>421827</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>548972</v>
+        <v>549956</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>573175</v>
+        <v>576675</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>700409</v>
+        <v>701753</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>681973</v>
+        <v>682084</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>890341</v>
+        <v>891237</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>601869</v>
+        <v>602764</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>783333</v>
+        <v>780445</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>760352</v>
+        <v>764074</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1086166</v>
+        <v>1080143</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1077281</v>
+        <v>1077316</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1313500</v>
+        <v>1318449</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1220451</v>
+        <v>1212863</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1669498</v>
+        <v>1672112</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1703941</v>
+        <v>1714496</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>2126039</v>
+        <v>2126748</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2001594</v>
+        <v>2013744</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>2776217</v>
+        <v>2775205</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>691471</v>
+        <v>693707</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>888767</v>
+        <v>888562</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>862252</v>
+        <v>860076</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1200748</v>
+        <v>1196797</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1185222</v>
+        <v>1185809</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1434060</v>
+        <v>1436130</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1339290</v>
+        <v>1335748</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1776102</v>
+        <v>1777660</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1853234</v>
+        <v>1853444</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>2288505</v>
+        <v>2285837</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>2166661</v>
+        <v>2163601</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2942113</v>
+        <v>2938234</v>
       </c>
     </row>
     <row r="24">
